--- a/Documentos_generados/3. Gestion de Calidad y RRHH/Matriz_RACI.xlsx
+++ b/Documentos_generados/3. Gestion de Calidad y RRHH/Matriz_RACI.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mari Cortes\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{438488B1-AC1B-4951-9606-02968AE041D6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{2F9E9DA0-11B8-4B06-98EF-D311A6C01A36}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -150,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,12 +154,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,10 +198,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,34 +524,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015F8F1E-2DFD-46BA-A15A-8A75E0D086BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" style="1" customWidth="1"/>
+    <col min="2" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>12</v>
       </c>
@@ -554,19 +581,19 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -578,30 +605,30 @@
       <c r="I2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -613,30 +640,30 @@
       <c r="I3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -648,135 +675,135 @@
       <c r="I4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -785,368 +812,370 @@
       <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1158,19 +1187,19 @@
       <c r="F19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="J19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1178,10 +1207,10 @@
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1193,68 +1222,68 @@
       <c r="F20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -1266,34 +1295,35 @@
       <c r="I22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="J22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>